--- a/01-Excel/01-文本函数/扩展.xlsx
+++ b/01-Excel/01-文本函数/扩展.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Library/Containers/com.microsoft.Excel/Data/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6659EE0-C80D-E740-92E7-4B10482CB4ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACCAA92-7753-C84C-A5B5-44187455F68C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{625E1A0D-BA7D-A14F-9043-6B71EC87DFDF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{625E1A0D-BA7D-A14F-9043-6B71EC87DFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="277" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE(A9,B9)</f>
+        <f t="shared" si="0"/>
         <v>A8B8</v>
       </c>
     </row>
